--- a/Solr指南.xlsx
+++ b/Solr指南.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D506AD-86A6-407D-A4A0-788EA8849CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD73C33-D460-4F3D-BF9B-3CD50AB94092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docker安装" sheetId="1" r:id="rId1"/>
+    <sheet name="操作" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1.拉取镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,43 +51,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.进入容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.定位Solr自带的中文分词器smartcn的jar包位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/solr/contrib/analysis-extras/lucene-libs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> docker exec -it --user root mysolr /bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.修改config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim /opt/solr/server/solr/collection1/conf/solrconfig.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucene-analyzers-smartcn-7.6.0.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim /opt/solr/server/solr/collection1/conf/managed-schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.修改managed-schema</t>
+    <t>插入文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语句：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.249.79.156:8983/solr/collection1/select?fq=sex:*%E5%A5%B3&amp;q=title:*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -188,10 +166,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1220975" cy="800091"/>
     <xdr:sp macro="" textlink="">
@@ -207,7 +185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9410700" y="3838575"/>
+          <a:off x="8829675" y="695325"/>
           <a:ext cx="1220975" cy="800091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -284,25 +262,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>302963</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47552</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784D668D-EA46-49B6-8A34-BCC2FF000CA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C71F9A3-1F90-41E4-A213-2B53F7CFF2D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,8 +301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2724150"/>
-          <a:ext cx="14695238" cy="580952"/>
+          <a:off x="0" y="581025"/>
+          <a:ext cx="7485714" cy="3514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -328,25 +311,124 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7422545" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70AC6D4-BDB4-49F0-9F94-4A304FFE59E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4400550"/>
+          <a:ext cx="7422545" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{"title":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>许宝江</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>","url":"7254863","chineseName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>许宝江</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>","sex":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>男</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>","occupation":" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>滦县农业局局长</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>","nationality":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中国</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>236724</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9455</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379667</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B101104-B36B-40B0-A92C-4BC9304F385E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA89514C-618B-4861-8297-3135E32A884C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -362,73 +444,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4705350"/>
-          <a:ext cx="11209524" cy="561905"/>
+          <a:off x="0" y="5343525"/>
+          <a:ext cx="10666667" cy="5247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="æ·»å FieldType">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE5230A-2D22-46FA-931E-A1E63B17598D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6162675"/>
-          <a:ext cx="9067800" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -699,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,53 +761,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB725400-E5C4-4669-A0A9-FE0577C4CD9C}">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
